--- a/Bug Reports/import letter of credit Bug Report of globe team.xlsx
+++ b/Bug Reports/import letter of credit Bug Report of globe team.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9943F7ED-78F1-456E-824A-AD20B1B622CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C80CC1-57C9-4012-A5F8-5E88CD27FAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,12 +413,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -530,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -560,7 +554,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -859,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -879,33 +872,33 @@
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="20"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:7">
@@ -981,8 +974,8 @@
       <c r="B7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>45</v>
+      <c r="C7" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -991,7 +984,10 @@
         <v>45314</v>
       </c>
       <c r="F7" s="10">
-        <v>45341</v>
+        <v>45411</v>
+      </c>
+      <c r="G7" s="15">
+        <v>45411</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="75.75" customHeight="1">
@@ -1001,8 +997,8 @@
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>45</v>
+      <c r="C8" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>28</v>
@@ -1011,7 +1007,10 @@
         <v>45314</v>
       </c>
       <c r="F8" s="10">
-        <v>45341</v>
+        <v>45411</v>
+      </c>
+      <c r="G8" s="15">
+        <v>45411</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="37.5" customHeight="1">
@@ -1021,14 +1020,20 @@
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="10">
         <v>45314</v>
+      </c>
+      <c r="F9" s="10">
+        <v>45411</v>
+      </c>
+      <c r="G9" s="15">
+        <v>45411</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="33" customHeight="1">
@@ -1081,15 +1086,18 @@
       <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>45</v>
+      <c r="C12" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="14">
         <v>45316</v>
       </c>
       <c r="F12" s="10">
-        <v>45341</v>
+        <v>45411</v>
+      </c>
+      <c r="G12" s="15">
+        <v>45411</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1697,14 +1705,20 @@
       <c r="B41" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>4</v>
+      <c r="C41" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>81</v>
       </c>
       <c r="E41" s="10">
         <v>45386</v>
+      </c>
+      <c r="F41" s="10">
+        <v>45435</v>
+      </c>
+      <c r="G41" s="15">
+        <v>45435</v>
       </c>
     </row>
     <row r="42" spans="1:7">

--- a/Bug Reports/import letter of credit Bug Report of globe team.xlsx
+++ b/Bug Reports/import letter of credit Bug Report of globe team.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\trade_finance\Bug Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C80CC1-57C9-4012-A5F8-5E88CD27FAE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C971F9-1CF0-4C2F-B2B6-6432E3D5F351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -852,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
